--- a/ALIP/src/com/alip/selenium/util/ALIP_TESTDATA.xlsx
+++ b/ALIP/src/com/alip/selenium/util/ALIP_TESTDATA.xlsx
@@ -9,20 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="993" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="3" r:id="rId1"/>
     <sheet name="Registration" sheetId="2" r:id="rId2"/>
-    <sheet name="Observation" sheetId="7" r:id="rId3"/>
-    <sheet name="Analysis" sheetId="9" r:id="rId4"/>
-    <sheet name="Generation" sheetId="10" r:id="rId5"/>
-    <sheet name="Evaluation" sheetId="11" r:id="rId6"/>
-    <sheet name="Eval_KPI" sheetId="12" r:id="rId7"/>
-    <sheet name="Role" sheetId="5" r:id="rId8"/>
-    <sheet name="Toll" sheetId="6" r:id="rId9"/>
-    <sheet name="Eval_EmpSeq" sheetId="13" r:id="rId10"/>
-    <sheet name="Obser_Toll" sheetId="8" r:id="rId11"/>
+    <sheet name="CrowdSourcing" sheetId="19" r:id="rId3"/>
+    <sheet name="Campaign" sheetId="18" r:id="rId4"/>
+    <sheet name="Observation" sheetId="7" r:id="rId5"/>
+    <sheet name="Analysis" sheetId="9" r:id="rId6"/>
+    <sheet name="Generation" sheetId="10" r:id="rId7"/>
+    <sheet name="Evaluation" sheetId="11" r:id="rId8"/>
+    <sheet name="IdeaSignOff" sheetId="15" r:id="rId9"/>
+    <sheet name="Eval_KPI" sheetId="12" r:id="rId10"/>
+    <sheet name="Role" sheetId="5" r:id="rId11"/>
+    <sheet name="Toll" sheetId="6" r:id="rId12"/>
+    <sheet name="Eval_EmpSeq" sheetId="13" r:id="rId13"/>
+    <sheet name="Implement" sheetId="14" r:id="rId14"/>
+    <sheet name="ActionToll" sheetId="17" r:id="rId15"/>
+    <sheet name="Obser_Toll" sheetId="8" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="268">
   <si>
     <t>location</t>
   </si>
@@ -69,9 +74,6 @@
     <t>Grade</t>
   </si>
   <si>
-    <t>XYZ Project</t>
-  </si>
-  <si>
     <t>Parent_Project</t>
   </si>
   <si>
@@ -255,9 +257,6 @@
     <t>16</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>K010</t>
   </si>
   <si>
@@ -291,370 +290,559 @@
     <t>APS</t>
   </si>
   <si>
+    <t>Leader</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>16004</t>
+  </si>
+  <si>
+    <t>SPONSOR</t>
+  </si>
+  <si>
+    <t>MEMBER</t>
+  </si>
+  <si>
+    <t>16005</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Milestones</t>
+  </si>
+  <si>
+    <t>RYG</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Charter Finalization &amp; Sign off by Sponsor</t>
+  </si>
+  <si>
+    <t>Sponsor Communication to CFT</t>
+  </si>
+  <si>
+    <t>Project Benefits Estimation &amp; Validation</t>
+  </si>
+  <si>
+    <t>Voice of Customer</t>
+  </si>
+  <si>
+    <t>Field/Plant/Shop flr/Supplier visit - Plan finalization</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Test Red</t>
+  </si>
+  <si>
+    <t>Testyellow</t>
+  </si>
+  <si>
+    <t>Test green</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>16000</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>ProjectCode</t>
+  </si>
+  <si>
+    <t>ProjectOwner</t>
+  </si>
+  <si>
+    <t>Project_Owner</t>
+  </si>
+  <si>
+    <t>OBS_Description</t>
+  </si>
+  <si>
+    <t>OBS_Actual_ST</t>
+  </si>
+  <si>
+    <t>OBS_Actual_END</t>
+  </si>
+  <si>
+    <t>OBS_QCtool</t>
+  </si>
+  <si>
+    <t>OBS Descripton</t>
+  </si>
+  <si>
+    <t>Gantt chart</t>
+  </si>
+  <si>
+    <t>Gemba Observation</t>
+  </si>
+  <si>
+    <t>MSA</t>
+  </si>
+  <si>
+    <t>Project Baseline Validation</t>
+  </si>
+  <si>
+    <t>Data Collection Plan</t>
+  </si>
+  <si>
+    <t>ANALYS_Description</t>
+  </si>
+  <si>
+    <t>ANALYS_QCtool</t>
+  </si>
+  <si>
+    <t>ANALYS_Actual_ST</t>
+  </si>
+  <si>
+    <t>ANALYS_Actual_END</t>
+  </si>
+  <si>
+    <t>Probable_Cause</t>
+  </si>
+  <si>
+    <t>Root_Cause</t>
+  </si>
+  <si>
+    <t>Proble Test</t>
+  </si>
+  <si>
+    <t>Root Test</t>
+  </si>
+  <si>
+    <t>Analysis  Descripton</t>
+  </si>
+  <si>
+    <t>Idea Description</t>
+  </si>
+  <si>
+    <t>Idea_Description</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Line_of_Business</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Sub_Segment</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Idea_Type</t>
+  </si>
+  <si>
+    <t>Idea_Classifier</t>
+  </si>
+  <si>
+    <t>Idea_No</t>
+  </si>
+  <si>
+    <t>Idea_Title</t>
+  </si>
+  <si>
+    <t>Aggregate</t>
+  </si>
+  <si>
+    <t>Test Idea Title</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>LCV</t>
+  </si>
+  <si>
+    <t>6x4</t>
+  </si>
+  <si>
+    <t>2518 IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engine </t>
+  </si>
+  <si>
+    <t>16010</t>
+  </si>
+  <si>
+    <t>Emp_No</t>
+  </si>
+  <si>
+    <t>Emp_No_1</t>
+  </si>
+  <si>
+    <t>Emp_No_2</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>MinorIdea</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Test Comment</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Feasibility</t>
+  </si>
+  <si>
+    <t>BackupIdea</t>
+  </si>
+  <si>
+    <t>BackUpIdeaNo</t>
+  </si>
+  <si>
+    <t>CancelIdea</t>
+  </si>
+  <si>
+    <t>IdeaHold</t>
+  </si>
+  <si>
+    <t>KPI</t>
+  </si>
+  <si>
+    <t>ShareOfBusiness</t>
+  </si>
+  <si>
+    <t>OneTime</t>
+  </si>
+  <si>
+    <t>RecurringAnnum</t>
+  </si>
+  <si>
+    <t>AutoCompute</t>
+  </si>
+  <si>
+    <t>KPI_Impact</t>
+  </si>
+  <si>
+    <t>CurrentMethod</t>
+  </si>
+  <si>
+    <t>Advantages</t>
+  </si>
+  <si>
+    <t>IntangibleBenefit</t>
+  </si>
+  <si>
+    <t>Downsides</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>test Current Method</t>
+  </si>
+  <si>
+    <t>test Advantages</t>
+  </si>
+  <si>
+    <t>test IntangibleBenefit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tes Downsides</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>NonCapital</t>
+  </si>
+  <si>
+    <t>Recurring</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>Emp_no</t>
+  </si>
+  <si>
+    <t>Emp_no_1</t>
+  </si>
+  <si>
+    <t>Emp_no_2</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>EmpName</t>
+  </si>
+  <si>
+    <t>ImplGroup</t>
+  </si>
+  <si>
+    <t>ActivityName</t>
+  </si>
+  <si>
+    <t>Exp_RS_MEM</t>
+  </si>
+  <si>
+    <t>Exp_RS_MEM_1</t>
+  </si>
+  <si>
+    <t>Exp_RS_MEM_2</t>
+  </si>
+  <si>
+    <t>EstimatedHrs</t>
+  </si>
+  <si>
+    <t>Proj_Plan_Startdt</t>
+  </si>
+  <si>
+    <t>Proj_Plan_Enddt</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>TempName</t>
+  </si>
+  <si>
+    <t>ExpStatus</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Acceptance</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>Predecessor</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Test Activity</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Instruction for testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp 1 </t>
+  </si>
+  <si>
+    <t>Brainstorming / Idea generation</t>
+  </si>
+  <si>
+    <t>Solution Selection</t>
+  </si>
+  <si>
+    <t>Risk Analysis</t>
+  </si>
+  <si>
+    <t>Pilot Implementation Plan</t>
+  </si>
+  <si>
+    <t>BPS</t>
+  </si>
+  <si>
+    <t>Campaign</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>From_Date</t>
+  </si>
+  <si>
+    <t>To_Date</t>
+  </si>
+  <si>
+    <t>Submit_Save</t>
+  </si>
+  <si>
+    <t>Campaign Name For Automation Testing</t>
+  </si>
+  <si>
+    <t>Objective for Test Automation</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>Aspire</t>
+  </si>
+  <si>
+    <t>ProjCode</t>
+  </si>
+  <si>
+    <t>IdeaTitle</t>
+  </si>
+  <si>
+    <t>IdeaClassifier</t>
+  </si>
+  <si>
+    <t>IdeaDesc</t>
+  </si>
+  <si>
+    <t>Add_Info</t>
+  </si>
+  <si>
+    <t>RECR_ANNUM</t>
+  </si>
+  <si>
+    <t>ONE_TIME</t>
+  </si>
+  <si>
+    <t>INTANGIBLE_BENEFITS</t>
+  </si>
+  <si>
+    <t>Title for Idea</t>
+  </si>
+  <si>
+    <t>Idea Description for testing</t>
+  </si>
+  <si>
+    <t>Current Method for testing</t>
+  </si>
+  <si>
+    <t>Add information for testing</t>
+  </si>
+  <si>
+    <t>Intangible for testing</t>
+  </si>
+  <si>
+    <t>Aspire Project for Automation test</t>
+  </si>
+  <si>
+    <t>APSProject</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>Achieve More</t>
   </si>
   <si>
-    <t>Alwar</t>
-  </si>
-  <si>
-    <t>AM Project</t>
-  </si>
-  <si>
-    <t>H201</t>
-  </si>
-  <si>
-    <t>Alims</t>
-  </si>
-  <si>
-    <t>check sheet</t>
+    <t>Achieve More Project for Automation test</t>
+  </si>
+  <si>
+    <t>ALIMS</t>
   </si>
   <si>
     <t>General</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Global Bus</t>
-  </si>
-  <si>
-    <t>Leader</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>16004</t>
-  </si>
-  <si>
-    <t>SPONSOR</t>
-  </si>
-  <si>
-    <t>MEMBER</t>
-  </si>
-  <si>
-    <t>16005</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Milestones</t>
-  </si>
-  <si>
-    <t>RYG</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>Charter Finalization &amp; Sign off by Sponsor</t>
-  </si>
-  <si>
-    <t>Sponsor Communication to CFT</t>
-  </si>
-  <si>
-    <t>Project Benefits Estimation &amp; Validation</t>
-  </si>
-  <si>
-    <t>Voice of Customer</t>
-  </si>
-  <si>
-    <t>Field/Plant/Shop flr/Supplier visit - Plan finalization</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Test Red</t>
-  </si>
-  <si>
-    <t>Testyellow</t>
-  </si>
-  <si>
-    <t>Test green</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>16000</t>
-  </si>
-  <si>
-    <t>Suresh</t>
-  </si>
-  <si>
-    <t>ProjectCode</t>
-  </si>
-  <si>
-    <t>ProjectOwner</t>
-  </si>
-  <si>
-    <t>Project_Owner</t>
-  </si>
-  <si>
-    <t>OBS_Description</t>
-  </si>
-  <si>
-    <t>OBS_Actual_ST</t>
-  </si>
-  <si>
-    <t>OBS_Actual_END</t>
-  </si>
-  <si>
-    <t>OBS_QCtool</t>
-  </si>
-  <si>
-    <t>OBS Descripton</t>
-  </si>
-  <si>
-    <t>Gantt chart</t>
-  </si>
-  <si>
-    <t>Gemba Observation</t>
-  </si>
-  <si>
-    <t>MSA</t>
-  </si>
-  <si>
-    <t>Project Baseline Validation</t>
-  </si>
-  <si>
-    <t>Data Collection Plan</t>
-  </si>
-  <si>
-    <t>ANALYS_Description</t>
-  </si>
-  <si>
-    <t>ANALYS_QCtool</t>
-  </si>
-  <si>
-    <t>ANALYS_Actual_ST</t>
-  </si>
-  <si>
-    <t>ANALYS_Actual_END</t>
-  </si>
-  <si>
-    <t>Probable_Cause</t>
-  </si>
-  <si>
-    <t>Root_Cause</t>
-  </si>
-  <si>
-    <t>Proble Test</t>
-  </si>
-  <si>
-    <t>Root Test</t>
-  </si>
-  <si>
-    <t>Analysis  Descripton</t>
-  </si>
-  <si>
-    <t>Idea Description</t>
-  </si>
-  <si>
-    <t>Idea_Description</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Line_of_Business</t>
-  </si>
-  <si>
-    <t>Segment</t>
-  </si>
-  <si>
-    <t>Sub_Segment</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Idea_Type</t>
-  </si>
-  <si>
-    <t>Idea_Classifier</t>
-  </si>
-  <si>
-    <t>Idea_No</t>
-  </si>
-  <si>
-    <t>Idea_Title</t>
-  </si>
-  <si>
-    <t>Aggregate</t>
-  </si>
-  <si>
-    <t>Test Idea Title</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Truck</t>
-  </si>
-  <si>
-    <t>LCV</t>
-  </si>
-  <si>
-    <t>6x4</t>
-  </si>
-  <si>
-    <t>2518 IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engine </t>
-  </si>
-  <si>
-    <t>16010</t>
-  </si>
-  <si>
-    <t>Emp_No</t>
-  </si>
-  <si>
-    <t>Emp_No_1</t>
-  </si>
-  <si>
-    <t>Emp_No_2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>MinorIdea</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Test Comment</t>
-  </si>
-  <si>
-    <t>Impact</t>
-  </si>
-  <si>
-    <t>Feasibility</t>
-  </si>
-  <si>
-    <t>BackupIdea</t>
-  </si>
-  <si>
-    <t>BackUpIdeaNo</t>
-  </si>
-  <si>
-    <t>CancelIdea</t>
-  </si>
-  <si>
-    <t>IdeaHold</t>
-  </si>
-  <si>
-    <t>KPI</t>
-  </si>
-  <si>
-    <t>ShareOfBusiness</t>
-  </si>
-  <si>
-    <t>OneTime</t>
-  </si>
-  <si>
-    <t>RecurringAnnum</t>
-  </si>
-  <si>
-    <t>AutoCompute</t>
-  </si>
-  <si>
-    <t>KPI_Impact</t>
-  </si>
-  <si>
-    <t>CurrentMethod</t>
-  </si>
-  <si>
-    <t>Advantages</t>
-  </si>
-  <si>
-    <t>IntangibleBenefit</t>
-  </si>
-  <si>
-    <t>Downsides</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>test Current Method</t>
-  </si>
-  <si>
-    <t>test Advantages</t>
-  </si>
-  <si>
-    <t>test IntangibleBenefit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tes Downsides</t>
-  </si>
-  <si>
-    <t>Capital</t>
-  </si>
-  <si>
-    <t>NonCapital</t>
-  </si>
-  <si>
-    <t>Recurring</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>566</t>
-  </si>
-  <si>
-    <t>Emp_no</t>
-  </si>
-  <si>
-    <t>Emp_no_1</t>
-  </si>
-  <si>
-    <t>Emp_no_2</t>
-  </si>
-  <si>
-    <t>Sequence</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>H12016A000145</t>
-  </si>
-  <si>
-    <t>H12016A000146</t>
+    <t>E101</t>
+  </si>
+  <si>
+    <t>BPSProject20161101124704369</t>
+  </si>
+  <si>
+    <t>H12016M000019</t>
+  </si>
+  <si>
+    <t>H12016I000020</t>
+  </si>
+  <si>
+    <t>H12016A000022</t>
+  </si>
+  <si>
+    <t>H12016B000024</t>
+  </si>
+  <si>
+    <t>Deep Dive</t>
+  </si>
+  <si>
+    <t>H105</t>
+  </si>
+  <si>
+    <t>Pant Nagar</t>
+  </si>
+  <si>
+    <t>DeepDive Project for Automation test</t>
+  </si>
+  <si>
+    <t>Prabhu</t>
+  </si>
+  <si>
+    <t>PN2016D000039</t>
+  </si>
+  <si>
+    <t>IL2016000014</t>
+  </si>
+  <si>
+    <t>PN2016D000040</t>
+  </si>
+  <si>
+    <t>IL2016000015</t>
+  </si>
+  <si>
+    <t>PN2016D000041</t>
+  </si>
+  <si>
+    <t>IL2016000016</t>
   </si>
 </sst>
 </file>
@@ -714,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -725,6 +913,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,10 +1209,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -1031,24 +1220,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1058,10 +1247,416 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,55 +1666,64 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>84</v>
+        <v>190</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1127,12 +1731,269 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,72 +2005,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1219,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU3"/>
+  <dimension ref="A1:AU6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,12 +2091,13 @@
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="11.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
     <col min="3" max="3" style="2" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="38.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="2" width="11.140625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="11.140625" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="24.42578125" collapsed="true"/>
-    <col min="9" max="10" style="2" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
+    <col min="10" max="10" style="2" width="9.140625" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
@@ -1246,19 +2108,19 @@
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1267,85 +2129,85 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>6</v>
@@ -1354,197 +2216,647 @@
         <v>7</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AQ2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="AU2" t="s">
-        <v>119</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>220</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>252</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="K4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>93</v>
+      <c r="V4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1554,6 +2866,246 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -1571,31 +3123,31 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1640,7 +3192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1660,42 +3212,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1704,13 +3256,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1723,84 +3273,84 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>267</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1935,11 +3485,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1947,78 +3497,78 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G2" s="2">
         <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2278,408 +3828,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>